--- a/06-03-2023/data/output/xlsx/sample_0/causality__1.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/causality__1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -355,13 +355,118 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_equals__0,num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__1,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
 </sst>
 </file>
@@ -756,22 +861,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>979</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>0.06273112437231837</v>
+        <v>0.401023042993109</v>
       </c>
       <c r="E2" t="s">
         <v>113</v>
       </c>
       <c r="F2">
-        <v>0.5342185903983657</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G2">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H2">
-        <v>0.001152458133836687</v>
+        <v>0.002836879432624118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -782,19 +887,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>826</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>0.4129929202062646</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
       </c>
       <c r="F3">
-        <v>0.5290556900726392</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="G3">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H3">
-        <v>-0.00401044219188984</v>
+        <v>0.01725129384703854</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -805,19 +913,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.9553740751910463</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H4">
-        <v>-0.333066132264529</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -828,19 +939,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.9553740751910463</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
       </c>
       <c r="F5">
-        <v>0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H5">
-        <v>-0.3108439100423068</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -851,19 +965,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.9553740751910463</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H6">
-        <v>-0.408066132264529</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -874,19 +991,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.9553740751910463</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
       </c>
       <c r="F7">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H7">
-        <v>-0.3902089894073862</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -897,19 +1017,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.9553740751910463</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
       </c>
       <c r="F8">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H8">
-        <v>-0.3663994655978624</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -920,19 +1043,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.9553740751910463</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
       </c>
       <c r="F9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H9">
-        <v>-0.283066132264529</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -943,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>112</v>
@@ -952,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H10">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -966,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>112</v>
@@ -975,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H11">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -989,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>112</v>
@@ -998,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H12">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1012,19 +1138,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>309</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0.4584825749179355</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
       </c>
       <c r="F13">
-        <v>0.4563106796116505</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G13">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H13">
-        <v>-0.07675545265287853</v>
+        <v>0.0666049953746531</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1035,19 +1164,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>0.4832250940708533</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
       </c>
       <c r="F14">
-        <v>0.4242424242424243</v>
+        <v>0.1875</v>
       </c>
       <c r="G14">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H14">
-        <v>-0.1088237080221048</v>
+        <v>0.1236702127659575</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1058,19 +1190,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0.4932312622886114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
       </c>
       <c r="F15">
-        <v>0.3619047619047619</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G15">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H15">
-        <v>-0.1711613703597671</v>
+        <v>0.2218844984802432</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1081,19 +1216,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.6342577961896422</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
       </c>
       <c r="F16">
-        <v>0.379746835443038</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H16">
-        <v>-0.153319296821491</v>
+        <v>0.4361702127659575</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1104,19 +1242,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.5459075532203146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
       </c>
       <c r="F17">
-        <v>0.3653846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H17">
-        <v>-0.1676815168799137</v>
+        <v>0.4361702127659575</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1127,19 +1268,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0.5459075532203146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
       </c>
       <c r="F18">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H18">
-        <v>-0.1830661322645291</v>
+        <v>0.4361702127659575</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1150,19 +1294,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.9553740751910463</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>0.3181818181818182</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H19">
-        <v>-0.2148843140827109</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1173,19 +1320,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.9553740751910463</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H20">
-        <v>-0.1997327989311957</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1196,19 +1346,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>622</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>0.4146882715288177</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
       </c>
       <c r="F21">
-        <v>0.4662379421221865</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G21">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H21">
-        <v>-0.06682819014234254</v>
+        <v>0.005135730007336761</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1219,19 +1372,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>492</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
+        <v>83</v>
+      </c>
+      <c r="D22">
+        <v>0.4150973772508404</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
       </c>
       <c r="F22">
-        <v>0.4166666666666667</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="G22">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H22">
-        <v>-0.1163994655978624</v>
+        <v>0.008459369392463473</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1242,19 +1398,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>112</v>
       </c>
       <c r="F23">
-        <v>0.3043478260869565</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H23">
-        <v>-0.2287183061775725</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1265,19 +1421,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>112</v>
       </c>
       <c r="F24">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H24">
-        <v>-0.333066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1288,19 +1444,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>112</v>
       </c>
       <c r="F25">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H25">
-        <v>-0.4330661322645291</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1311,7 +1467,7 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>112</v>
@@ -1320,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H26">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1334,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>112</v>
@@ -1343,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H27">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1357,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>112</v>
@@ -1366,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H28">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1380,7 +1536,7 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>112</v>
@@ -1389,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H29">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1403,7 +1559,7 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>112</v>
@@ -1412,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H30">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1426,7 +1582,7 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>112</v>
@@ -1435,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H31">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1449,7 +1605,7 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>112</v>
@@ -1458,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H32">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1472,19 +1628,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>365</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
         <v>112</v>
       </c>
       <c r="F33">
-        <v>0.3917808219178082</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G33">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H33">
-        <v>-0.1412853103467208</v>
+        <v>-0.00322372662798194</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1495,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>112</v>
@@ -1504,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H34">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1518,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>112</v>
@@ -1527,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H35">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1541,7 +1697,7 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>112</v>
@@ -1550,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H36">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1564,7 +1720,7 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>112</v>
@@ -1573,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H37">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1587,7 +1743,7 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -1596,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H38">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1610,7 +1766,7 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>112</v>
@@ -1619,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H39">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1633,7 +1789,7 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>112</v>
@@ -1642,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H40">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1656,7 +1812,7 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1665,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H41">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1679,7 +1835,7 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>112</v>
@@ -1688,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H42">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1702,7 +1858,7 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>112</v>
@@ -1711,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H43">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1725,19 +1881,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>253</v>
-      </c>
-      <c r="D44" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>0.3045725977868139</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
       </c>
       <c r="F44">
-        <v>0.3636363636363636</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G44">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H44">
-        <v>-0.1694297686281654</v>
+        <v>0.02312673450508788</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1748,19 +1907,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
         <v>112</v>
       </c>
       <c r="F45">
-        <v>0.3532934131736527</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G45">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H45">
-        <v>-0.1797727190908763</v>
+        <v>-0.01837524177949709</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1771,19 +1930,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>126</v>
-      </c>
-      <c r="D46" t="s">
-        <v>112</v>
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>-0.325935922124716</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
       </c>
       <c r="F46">
-        <v>0.3333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G46">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H46">
-        <v>-0.1997327989311957</v>
+        <v>0.002836879432624118</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1794,19 +1956,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>85</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>-0.2833221045713589</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
       </c>
       <c r="F47">
-        <v>0.3058823529411765</v>
+        <v>0.125</v>
       </c>
       <c r="G47">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H47">
-        <v>-0.2271837793233525</v>
+        <v>0.06117021276595745</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1817,19 +1982,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>65</v>
-      </c>
-      <c r="D48" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>-0.1446968348591869</v>
+      </c>
+      <c r="E48" t="s">
+        <v>134</v>
       </c>
       <c r="F48">
-        <v>0.3230769230769231</v>
+        <v>0.2</v>
       </c>
       <c r="G48">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H48">
-        <v>-0.2099892091876059</v>
+        <v>0.1361702127659575</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1840,19 +2008,19 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>112</v>
       </c>
       <c r="F49">
-        <v>0.2682926829268293</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H49">
-        <v>-0.2647734493376998</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1863,19 +2031,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>112</v>
       </c>
       <c r="F50">
-        <v>0.2258064516129032</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H50">
-        <v>-0.3072596806516258</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1886,22 +2054,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>997</v>
-      </c>
-      <c r="D51">
-        <v>0.5357981547630102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>112</v>
       </c>
       <c r="F51">
-        <v>0.5336008024072216</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G51">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H51">
-        <v>0.0005346701426925948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1912,22 +2077,22 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>991</v>
+        <v>93</v>
       </c>
       <c r="D52">
-        <v>0.5374486634857754</v>
+        <v>0.3996534603583011</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F52">
-        <v>0.5368314833501514</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G52">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H52">
-        <v>0.00376535108562237</v>
+        <v>0.0006863417982155146</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1938,19 +2103,22 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>0.6101374329459681</v>
+      </c>
+      <c r="E53" t="s">
+        <v>136</v>
       </c>
       <c r="F53">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G53">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H53">
-        <v>-0.1997327989311957</v>
+        <v>0.4361702127659575</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1961,19 +2129,22 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.955374075191046</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
       </c>
       <c r="F54">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H54">
-        <v>-0.133066132264529</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1984,7 +2155,7 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="s">
         <v>112</v>
@@ -1993,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H55">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2007,7 +2178,7 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>112</v>
@@ -2016,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H56">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2030,19 +2201,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>539</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
         <v>112</v>
       </c>
       <c r="F57">
-        <v>0.5083487940630798</v>
+        <v>0.06</v>
       </c>
       <c r="G57">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H57">
-        <v>-0.02471733820144928</v>
+        <v>-0.00382978723404255</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2053,19 +2224,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>344</v>
-      </c>
-      <c r="D58" t="s">
-        <v>112</v>
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>0.3965344091150415</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
       </c>
       <c r="F58">
-        <v>0.4709302325581395</v>
+        <v>0.09375</v>
       </c>
       <c r="G58">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H58">
-        <v>-0.0621358997063895</v>
+        <v>0.02992021276595745</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2076,19 +2250,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>204</v>
-      </c>
-      <c r="D59" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>0.3641270116773349</v>
+      </c>
+      <c r="E59" t="s">
+        <v>139</v>
       </c>
       <c r="F59">
-        <v>0.4215686274509804</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G59">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H59">
-        <v>-0.1114975048135486</v>
+        <v>0.05381727158948686</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2099,19 +2276,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>136</v>
-      </c>
-      <c r="D60" t="s">
-        <v>112</v>
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>0.2922192515037251</v>
+      </c>
+      <c r="E60" t="s">
+        <v>140</v>
       </c>
       <c r="F60">
-        <v>0.3823529411764706</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G60">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H60">
-        <v>-0.1507131910880585</v>
+        <v>0.01950354609929078</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2122,19 +2302,22 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>92</v>
-      </c>
-      <c r="D61" t="s">
-        <v>112</v>
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>0.4115339847193094</v>
+      </c>
+      <c r="E61" t="s">
+        <v>141</v>
       </c>
       <c r="F61">
-        <v>0.391304347826087</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G61">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H61">
-        <v>-0.1417617844384421</v>
+        <v>0.1028368794326241</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2145,19 +2328,22 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>54</v>
-      </c>
-      <c r="D62" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>0.4781783846947548</v>
+      </c>
+      <c r="E62" t="s">
+        <v>142</v>
       </c>
       <c r="F62">
-        <v>0.4259259259259259</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G62">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H62">
-        <v>-0.1071402063386031</v>
+        <v>0.2695035460992908</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2168,19 +2354,22 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>35</v>
-      </c>
-      <c r="D63" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>0.4781783846947548</v>
+      </c>
+      <c r="E63" t="s">
+        <v>143</v>
       </c>
       <c r="F63">
-        <v>0.4571428571428571</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G63">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H63">
-        <v>-0.07592327512167191</v>
+        <v>0.2695035460992908</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2191,19 +2380,22 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>17</v>
-      </c>
-      <c r="D64" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>0.6101374329459681</v>
+      </c>
+      <c r="E64" t="s">
+        <v>144</v>
       </c>
       <c r="F64">
-        <v>0.2352941176470588</v>
+        <v>0.5</v>
       </c>
       <c r="G64">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H64">
-        <v>-0.2977720146174702</v>
+        <v>0.4361702127659575</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2214,19 +2406,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
         <v>112</v>
       </c>
       <c r="F65">
-        <v>0.3582887700534759</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G65">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H65">
-        <v>-0.1747773622110531</v>
+        <v>-0.005006257822277843</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2237,19 +2429,22 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>142</v>
-      </c>
-      <c r="D66" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>-0.1587353440803511</v>
+      </c>
+      <c r="E66" t="s">
+        <v>145</v>
       </c>
       <c r="F66">
-        <v>0.352112676056338</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G66">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H66">
-        <v>-0.180953456208191</v>
+        <v>0.007598784194528876</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2260,19 +2455,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>112</v>
       </c>
       <c r="F67">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H67">
-        <v>-0.333066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2283,7 +2478,7 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>112</v>
@@ -2292,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H68">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2306,7 +2501,7 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>112</v>
@@ -2315,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H69">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2329,7 +2524,7 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>112</v>
@@ -2338,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H70">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2352,19 +2547,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
         <v>112</v>
       </c>
       <c r="F71">
-        <v>0.2903225806451613</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H71">
-        <v>-0.2427435516193677</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2375,19 +2570,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
         <v>112</v>
       </c>
       <c r="F72">
-        <v>0.2876712328767123</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H72">
-        <v>-0.2453948993878167</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2398,19 +2593,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
         <v>112</v>
       </c>
       <c r="F73">
-        <v>0.2592592592592592</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H73">
-        <v>-0.2738068730052698</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2421,19 +2616,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
         <v>112</v>
       </c>
       <c r="F74">
-        <v>0.1891891891891892</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H74">
-        <v>-0.3438769430753398</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2444,19 +2639,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
         <v>112</v>
       </c>
       <c r="F75">
-        <v>0.3181818181818182</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H75">
-        <v>-0.2148843140827109</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2467,19 +2662,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
         <v>112</v>
       </c>
       <c r="F76">
-        <v>0.2941176470588235</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H76">
-        <v>-0.2389484852057055</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2490,19 +2685,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
         <v>112</v>
       </c>
       <c r="F77">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H77">
-        <v>-0.1694297686281654</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2513,19 +2708,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>112</v>
       </c>
       <c r="F78">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H78">
-        <v>-0.408066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2536,16 +2731,16 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>998</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
         <v>112</v>
       </c>
       <c r="F79">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G79">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2559,19 +2754,22 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>683</v>
-      </c>
-      <c r="D80" t="s">
-        <v>112</v>
+        <v>62</v>
+      </c>
+      <c r="D80">
+        <v>0.4047141563568501</v>
+      </c>
+      <c r="E80" t="s">
+        <v>146</v>
       </c>
       <c r="F80">
-        <v>0.527086383601757</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="G80">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H80">
-        <v>-0.005979748662772066</v>
+        <v>0.01681537405628003</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2582,7 +2780,7 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>112</v>
@@ -2591,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H81">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2605,7 +2803,7 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
         <v>112</v>
@@ -2614,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H82">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2826,7 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>112</v>
@@ -2637,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H83">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2651,19 +2849,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
         <v>112</v>
       </c>
       <c r="F84">
-        <v>0.3263157894736842</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H84">
-        <v>-0.2067503427908448</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2674,19 +2872,19 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
         <v>112</v>
       </c>
       <c r="F85">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H85">
-        <v>-0.3022969014952983</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2697,19 +2895,19 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
         <v>112</v>
       </c>
       <c r="F86">
-        <v>0.2173913043478261</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H86">
-        <v>-0.315674827916703</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2720,19 +2918,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
         <v>112</v>
       </c>
       <c r="F87">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H87">
-        <v>-0.3902089894073862</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2743,19 +2941,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
         <v>112</v>
       </c>
       <c r="F88">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H88">
-        <v>-0.3512479504463472</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2766,7 +2964,7 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D89" t="s">
         <v>112</v>
@@ -2775,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H89">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2789,7 +2987,7 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D90" t="s">
         <v>112</v>
@@ -2798,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H90">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2812,7 +3010,7 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91" t="s">
         <v>112</v>
@@ -2821,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H91">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2835,19 +3033,22 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>398</v>
-      </c>
-      <c r="D92" t="s">
-        <v>112</v>
+        <v>36</v>
+      </c>
+      <c r="D92">
+        <v>0.39248512292613</v>
+      </c>
+      <c r="E92" t="s">
+        <v>147</v>
       </c>
       <c r="F92">
-        <v>0.5050251256281407</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G92">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H92">
-        <v>-0.02804100663638831</v>
+        <v>0.01950354609929078</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2858,19 +3059,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>157</v>
-      </c>
-      <c r="D93" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>-0.1780507054461889</v>
+      </c>
+      <c r="E93" t="s">
+        <v>148</v>
       </c>
       <c r="F93">
-        <v>0.4076433121019108</v>
+        <v>0.1</v>
       </c>
       <c r="G93">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H93">
-        <v>-0.1254228201626182</v>
+        <v>0.03617021276595746</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2881,7 +3085,7 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D94" t="s">
         <v>112</v>
@@ -2890,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H94">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2904,7 +3108,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
         <v>112</v>
@@ -2913,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H95">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2927,7 +3131,7 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96" t="s">
         <v>112</v>
@@ -2936,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H96">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2950,7 +3154,7 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="s">
         <v>112</v>
@@ -2959,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H97">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2973,7 +3177,7 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="s">
         <v>112</v>
@@ -2982,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H98">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2996,19 +3200,22 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>75</v>
-      </c>
-      <c r="D99" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>0.008132821957123221</v>
+      </c>
+      <c r="E99" t="s">
+        <v>149</v>
       </c>
       <c r="F99">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G99">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H99">
-        <v>-0.1997327989311957</v>
+        <v>0.1361702127659575</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3019,19 +3226,22 @@
         <v>105</v>
       </c>
       <c r="C100">
-        <v>43</v>
-      </c>
-      <c r="D100" t="s">
-        <v>112</v>
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>0.02795251151742788</v>
+      </c>
+      <c r="E100" t="s">
+        <v>150</v>
       </c>
       <c r="F100">
-        <v>0.3023255813953488</v>
+        <v>0.25</v>
       </c>
       <c r="G100">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H100">
-        <v>-0.2307405508691802</v>
+        <v>0.1861702127659575</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3042,19 +3252,19 @@
         <v>106</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
         <v>112</v>
       </c>
       <c r="F101">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H101">
-        <v>-0.333066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3065,19 +3275,19 @@
         <v>107</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D102" t="s">
         <v>112</v>
       </c>
       <c r="F102">
-        <v>0.2352941176470588</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H102">
-        <v>-0.2977720146174702</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3088,19 +3298,19 @@
         <v>108</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D103" t="s">
         <v>112</v>
       </c>
       <c r="F103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H103">
-        <v>-0.283066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3111,7 +3321,7 @@
         <v>109</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D104" t="s">
         <v>112</v>
@@ -3120,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H104">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3134,7 +3344,7 @@
         <v>110</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D105" t="s">
         <v>112</v>
@@ -3143,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H105">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3157,7 +3367,7 @@
         <v>111</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D106" t="s">
         <v>112</v>
@@ -3166,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.533066132264529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H106">
-        <v>-0.533066132264529</v>
+        <v>-0.06382978723404255</v>
       </c>
     </row>
   </sheetData>
